--- a/data/trans_dic/P25_N_R2-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P25_N_R2-Estudios-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,12 +527,15 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que tiene más de dos enfermedades crónicas</t>
+          <t>Población que tiene más de dos enfermedades crónicas (tasa de respuesta: 100,0%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -542,20 +546,23 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="inlineStr">
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -577,32 +584,47 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -618,6 +640,9 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -632,47 +657,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>53,69%</t>
+          <t>45,28%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>45,42%</t>
+          <t>40,22%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>46,66%</t>
+          <t>42,27%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>70,92%</t>
+          <t>44,86%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>60,25%</t>
+          <t>72,58%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>76,08%</t>
+          <t>70,95%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>62,91%</t>
+          <t>68,83%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>53,79%</t>
+          <t>79,87%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>63,41%</t>
+          <t>59,61%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>56,28%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>56,01%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>63,99%</t>
         </is>
       </c>
     </row>
@@ -685,47 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>38,94; 66,72</t>
+          <t>18,82; 63,77</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>32,31; 57,27</t>
+          <t>19,22; 58,12</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>31,3; 59,25</t>
+          <t>17,88; 61,86</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>60,24; 78,88</t>
+          <t>17,06; 70,36</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>43,68; 71,0</t>
+          <t>59,92; 83,79</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>67,38; 86,29</t>
+          <t>59,66; 82,57</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>54,02; 70,54</t>
+          <t>53,52; 80,97</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>43,48; 61,29</t>
+          <t>67,0; 89,91</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>52,82; 72,12</t>
+          <t>41,67; 71,42</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>40,14; 69,31</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>37,79; 68,81</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>40,29; 78,2</t>
         </is>
       </c>
     </row>
@@ -742,47 +797,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>25,59%</t>
+          <t>31,68%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>25,14%</t>
+          <t>28,5%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>23,77%</t>
+          <t>25,9%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>49,41%</t>
+          <t>35,34%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>45,97%</t>
+          <t>51,48%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>49,06%</t>
+          <t>47,47%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>37,93%</t>
+          <t>48,5%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>35,55%</t>
+          <t>54,14%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>35,9%</t>
+          <t>41,97%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>38,05%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>36,85%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>44,54%</t>
         </is>
       </c>
     </row>
@@ -795,47 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>20,51; 31,35</t>
+          <t>23,91; 39,9</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>20,08; 31,67</t>
+          <t>22,11; 37,22</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>19,02; 30,44</t>
+          <t>19,67; 33,85</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>43,53; 55,63</t>
+          <t>27,25; 44,38</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>40,18; 52,16</t>
+          <t>44,55; 58,94</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>43,08; 55,62</t>
+          <t>39,25; 54,19</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>33,84; 42,45</t>
+          <t>41,1; 56,01</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>31,45; 40,02</t>
+          <t>47,23; 61,7</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>31,63; 40,37</t>
+          <t>36,58; 47,61</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>32,44; 43,55</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>31,38; 42,58</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>38,28; 50,4</t>
         </is>
       </c>
     </row>
@@ -852,47 +937,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>32,44%</t>
+          <t>34,86%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>27,29%</t>
+          <t>30,7%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>30,18%</t>
+          <t>32,89%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>36,12%</t>
+          <t>38,34%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>37,28%</t>
+          <t>33,91%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>34,96%</t>
+          <t>32,49%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>34,42%</t>
+          <t>31,95%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>32,63%</t>
+          <t>39,67%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>32,69%</t>
+          <t>34,32%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>31,68%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>32,38%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>39,05%</t>
         </is>
       </c>
     </row>
@@ -905,54 +1005,69 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>25,71; 39,87</t>
+          <t>26,84; 45,3</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>21,53; 34,24</t>
+          <t>23,3; 39,68</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>23,61; 37,36</t>
+          <t>24,63; 44,19</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>30,15; 42,22</t>
+          <t>29,71; 48,39</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>31,35; 43,38</t>
+          <t>26,65; 41,28</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>29,62; 41,24</t>
+          <t>25,94; 40,28</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>29,71; 39,19</t>
+          <t>25,35; 40,02</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>27,74; 37,09</t>
+          <t>31,7; 48,06</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>28,18; 37,47</t>
+          <t>29,07; 40,06</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>26,89; 37,64</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>27,43; 38,24</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>33,37; 45,13</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -962,47 +1077,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>32,76%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>28,99%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>29,35%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>48,67%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>45,64%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>49,96%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>41,16%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>37,68%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>39,86%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1015,60 +1145,1431 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>28,53; 37,58</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>25,28; 33,67</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>24,78; 33,41</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>45,07; 52,66</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>41,78; 49,94</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>45,91; 55,6</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>37,99; 43,96</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>35,01; 40,43</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>36,74; 43,84</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>34,84%</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>30,93%</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>30,71%</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>37,97%</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>47,11%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>44,56%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>44,95%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>53,89%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>41,43%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>38,07%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>37,99%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>46,15%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>28,97; 41,34</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>25,88; 36,9</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>25,07; 36,56</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>31,03; 45,11</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>42,26; 51,94</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>39,94; 49,68</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>39,82; 50,09</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>48,96; 59,41</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>37,5; 45,53</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>34,38; 41,94</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>34,0; 42,31</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>41,19; 50,86</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="C1:E1"/>
+  <mergeCells count="9">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A10:A11"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="K1:N1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que tiene más de dos enfermedades crónicas (tasa de respuesta: 100,0%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Hasta primaria</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>22.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>21.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>24.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>36.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>36.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>37.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>37.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>58.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>55.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>58.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>61.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>58357</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>42412</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>48248</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>79694</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>103410</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>81948</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>84237</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>170904</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>161766</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>124360</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>132484</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>250598</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>24257; 82189</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>20267; 61288</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>20402; 70607</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>30299; 124986</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>85375; 119383</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>68906; 95364</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>65505; 99103</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>143359; 192375</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>113072; 193803</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>88683; 153147</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>89387; 162740</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>157790; 306239</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Secundaria o FP grado sup</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>52.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>50.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>47.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>59.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>95.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>87.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>90.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>97.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>147.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>137.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>137.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>156.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>136056</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>107240</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>103462</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>182618</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>239096</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>180825</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>181989</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>267828</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>375152</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>288065</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>285451</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>450446</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>102676; 171368</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>83191; 140041</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>78583; 135230</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>140812; 229344</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>206944; 273756</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>149518; 206387</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>154193; 210146</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>233637; 305236</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>326979; 425598</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>245614; 329755</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>243114; 329831</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>387189; 509767</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Estudios universitarios o más</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>42.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>41.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>42.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>47.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>58.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>57.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>56.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>66.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>100.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>98.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>98.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>113.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>116056</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>86681</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>90575</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>135459</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>145253</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>111966</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>104609</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>158477</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>261309</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>198648</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>195184</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>293936</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>89365; 150816</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>65787; 112054</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>67818; 121703</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>104968; 170952</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>114181; 176855</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>89402; 138829</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>83005; 131046</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>126673; 192029</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>221321; 304991</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>168620; 236009</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>165353; 230502</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>251194; 339757</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>116.0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>110.0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>110.0</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>130.0</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>189.0</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>180.0</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>183.0</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>200.0</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>305.0</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>290.0</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>293.0</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>330.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>310468</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>236334</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>242284</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>397771</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>487758</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>374739</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>370835</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>597209</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>798227</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>611074</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>613119</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>994979</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>258235; 368419</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>197731; 281939</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>197842; 288489</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>325108; 472538</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>437579; 537738</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>335948; 417835</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>328544; 413297</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>542563; 658425</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>722439; 877163</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>551883; 673197</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>548824; 682949</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>887931; 1096455</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
